--- a/data/trans_dic/RUIDO_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>60,8; 82,29</t>
+          <t>63,03; 84,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,69; 80,58</t>
+          <t>62,44; 81,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>65,38; 80,28</t>
+          <t>65,39; 79,76</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,75; 77,93</t>
+          <t>60,02; 77,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,74; 83,54</t>
+          <t>71,33; 83,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,68; 78,87</t>
+          <t>69,29; 79,33</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,63; 78,43</t>
+          <t>67,8; 77,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,7; 78,71</t>
+          <t>69,9; 78,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,98; 77,22</t>
+          <t>69,83; 77,12</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,72; 78,31</t>
+          <t>68,57; 78,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,98; 80,24</t>
+          <t>68,54; 79,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,02; 77,96</t>
+          <t>70,5; 78,17</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>74,77; 83,85</t>
+          <t>75,0; 83,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,52; 79,98</t>
+          <t>72,96; 80,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,23; 81,03</t>
+          <t>75,4; 80,74</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>76,54; 83,34</t>
+          <t>76,02; 83,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,19; 93,6</t>
+          <t>84,21; 93,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>82,23; 90,1</t>
+          <t>82,18; 90,14</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>73,09; 77,98</t>
+          <t>73,24; 77,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>77,26; 83,1</t>
+          <t>77,21; 82,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>75,98; 79,8</t>
+          <t>76,1; 80,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/RUIDO_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,03; 84,12</t>
+          <t>60,8; 82,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,44; 81,53</t>
+          <t>62,69; 80,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>65,39; 79,76</t>
+          <t>65,38; 80,28</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>60,02; 77,59</t>
+          <t>61,75; 77,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,33; 83,42</t>
+          <t>71,74; 83,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,29; 79,33</t>
+          <t>68,68; 78,87</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,8; 77,98</t>
+          <t>67,63; 78,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,9; 78,61</t>
+          <t>69,7; 78,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,83; 77,12</t>
+          <t>69,98; 77,22</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,57; 78,45</t>
+          <t>68,72; 78,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>68,54; 79,81</t>
+          <t>66,98; 80,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,5; 78,17</t>
+          <t>71,02; 77,96</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>75,0; 83,82</t>
+          <t>74,77; 83,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,96; 80,39</t>
+          <t>72,52; 79,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,4; 80,74</t>
+          <t>75,23; 81,03</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>76,02; 83,28</t>
+          <t>76,54; 83,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,21; 93,28</t>
+          <t>84,19; 93,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>82,18; 90,14</t>
+          <t>82,23; 90,1</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>73,24; 77,84</t>
+          <t>73,09; 77,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>77,21; 82,87</t>
+          <t>77,26; 83,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>76,1; 80,17</t>
+          <t>75,98; 79,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/RUIDO_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>73,22%</t>
+          <t>71,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>72,8%</t>
+          <t>72,1%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>73,01%</t>
+          <t>71,5%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>60,8; 82,29</t>
+          <t>58,29; 81,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,69; 80,58</t>
+          <t>61,98; 80,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>65,38; 80,28</t>
+          <t>63,06; 79,13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>69,97%</t>
+          <t>70,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>78,11%</t>
+          <t>77,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>74,32%</t>
+          <t>73,9%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,75; 77,93</t>
+          <t>62,0; 78,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,74; 83,54</t>
+          <t>70,58; 82,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,68; 78,87</t>
+          <t>68,14; 78,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>73,31%</t>
+          <t>73,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74,41%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73,83%</t>
+          <t>73,64%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,63; 78,43</t>
+          <t>67,37; 78,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,7; 78,71</t>
+          <t>69,45; 78,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,98; 77,22</t>
+          <t>69,65; 76,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>73,58%</t>
+          <t>73,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>76,09%</t>
+          <t>71,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>74,87%</t>
+          <t>72,45%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,72; 78,31</t>
+          <t>68,85; 78,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,98; 80,24</t>
+          <t>45,23; 79,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,02; 77,96</t>
+          <t>61,26; 77,24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>79,85%</t>
+          <t>80,04%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>76,56%</t>
+          <t>76,37%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>78,22%</t>
+          <t>78,25%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>74,77; 83,85</t>
+          <t>75,0; 84,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,52; 79,98</t>
+          <t>72,26; 79,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,23; 81,03</t>
+          <t>75,27; 81,08</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>80,11%</t>
+          <t>79,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>87,95%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>84,93%</t>
+          <t>87,86%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>76,54; 83,34</t>
+          <t>74,47; 83,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,19; 93,6</t>
+          <t>82,56; 97,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>82,23; 90,1</t>
+          <t>80,66; 95,59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>75,7%</t>
+          <t>81,36%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>79,46%</t>
+          <t>86,77%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>77,7%</t>
+          <t>84,67%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>73,09; 77,98</t>
+          <t>76,21; 85,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>77,26; 83,1</t>
+          <t>83,48; 89,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>75,98; 79,8</t>
+          <t>81,98; 87,22</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>75,53%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>79,39%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>77,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>72,98; 77,99</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>75,31; 84,99</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>74,99; 81,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/RUIDO_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,29; 81,3</t>
+          <t>58,16; 81,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>61,98; 80,27</t>
+          <t>61,83; 81,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,06; 79,13</t>
+          <t>63,4; 79,23</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62,0; 78,4</t>
+          <t>61,72; 78,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>70,58; 82,94</t>
+          <t>70,09; 82,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,14; 78,39</t>
+          <t>68,68; 79,0</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,37; 78,38</t>
+          <t>67,55; 78,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,45; 78,63</t>
+          <t>69,88; 78,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,65; 76,95</t>
+          <t>69,59; 76,84</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,85; 78,44</t>
+          <t>68,82; 78,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,23; 79,51</t>
+          <t>49,31; 79,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,26; 77,24</t>
+          <t>60,2; 77,27</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>75,0; 84,09</t>
+          <t>75,47; 84,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,26; 79,77</t>
+          <t>72,65; 79,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,27; 81,08</t>
+          <t>75,27; 80,69</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>74,47; 83,96</t>
+          <t>74,12; 83,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,56; 97,44</t>
+          <t>82,41; 97,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,66; 95,59</t>
+          <t>80,7; 96,01</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>76,21; 85,6</t>
+          <t>75,96; 85,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>83,48; 89,48</t>
+          <t>83,54; 89,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>81,98; 87,22</t>
+          <t>81,87; 87,17</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>72,98; 77,99</t>
+          <t>73,01; 77,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>75,31; 84,99</t>
+          <t>75,22; 85,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>74,99; 81,25</t>
+          <t>75,22; 81,68</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no está dispuesta a pagar para reducir el ruido (impuesto durante 5 años)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>133042</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>113406</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>246447</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>108974; 153310</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>97252; 127686</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>218530; 273071</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>131708</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>152658</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>284366</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>115312; 147192</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>138767; 163637</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>264286; 304014</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>215894</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>191155</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>407049</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>199523; 231782</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>179854; 202443</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>384675; 424707</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>246856</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>255331</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>502188</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>229757; 262372</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>177172; 285756</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>417293; 535601</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>245795</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>224672</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>470466</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>231771; 259456</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>213713; 234825</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>452596; 485171</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>154712</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>372236</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>526948</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>144186; 162766</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>333930; 395187</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>483961; 575828</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>122062</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>205124</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>327187</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>113959; 128659</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>197497; 211667</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>316361; 336855</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1344</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2148</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3492</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1250069</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1514580</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2764650</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1208325; 1287758</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1434953; 1631081</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2679933; 2910240</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>